--- a/biology/Botanique/Pseudopanax/Pseudopanax.xlsx
+++ b/biology/Botanique/Pseudopanax/Pseudopanax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudopanax est un genre d'Araliaceae pour la plupart endémiques de Nouvelle-Zélande. Ce sont des arbustes qui ont la particularité d'avoir une forme juvénile et une forme adulte distinctes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 octobre 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 octobre 2016) :
 Pseudopanax chathamicus Kirk, 1899
 Pseudopanax crassifolius (Sol. ex A.Cunn.) K.Koch, Wochenschr, 1859
 Pseudopanax discolor (Kirk) Harms in H.G.A.Engler &amp; K.A.E.Prantl, 1894
@@ -564,7 +578,9 @@
           <t>liens externes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence World Checklist of Selected Plant Families (WCSP) : Pseudopanax 
 (fr + en) Référence ITIS : Pseudopanax K. Koch
